--- a/data/trans_dic/IP16A08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A08-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>12,59%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,97; 35,38</t>
+          <t>4,58; 19,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 38,3</t>
+          <t>7,26; 22,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 29,24</t>
+          <t>11,88; 32,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 20,24</t>
+          <t>5,62; 23,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 36,12</t>
+          <t>11,34; 34,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,27; 29,82</t>
+          <t>8,0; 26,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 32,92</t>
+          <t>11,76; 32,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 19,19</t>
+          <t>5,97; 21,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 31,41</t>
+          <t>8,8; 22,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,2; 30,22</t>
+          <t>9,16; 20,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 26,84</t>
+          <t>13,44; 27,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 17,12</t>
+          <t>7,58; 19,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>11,67%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 19,79</t>
+          <t>15,97; 35,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 22,25</t>
+          <t>14,28; 38,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 32,67</t>
+          <t>7,72; 29,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 23,02</t>
+          <t>6,84; 20,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 34,45</t>
+          <t>14,27; 36,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,0; 26,45</t>
+          <t>10,27; 29,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,76; 32,79</t>
+          <t>10,11; 32,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 21,51</t>
+          <t>5,31; 19,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 22,56</t>
+          <t>17,35; 31,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 20,21</t>
+          <t>15,2; 30,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 27,49</t>
+          <t>11,15; 26,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 19,41</t>
+          <t>7,38; 17,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A08-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,37 +656,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,22 +696,22 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,82; 22,21</t>
+          <t>4,65; 24,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 11,84</t>
+          <t>0,0; 8,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 15,07</t>
+          <t>2,69; 22,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,58</t>
+          <t>0; 4,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,42</t>
+          <t>0,0; 13,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 10,4</t>
+          <t>0,0; 11,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 9,83</t>
+          <t>0,0; 14,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>0; 6,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 13,64</t>
+          <t>3,44; 14,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 9,29</t>
+          <t>0,76; 7,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,55</t>
+          <t>2,39; 13,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,04</t>
+          <t>0; 2,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>10,34%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 19,79</t>
+          <t>5,28; 19,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 22,25</t>
+          <t>3,99; 14,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 32,67</t>
+          <t>5,61; 24,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 23,02</t>
+          <t>5,76; 24,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 34,45</t>
+          <t>8,04; 26,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 26,45</t>
+          <t>3,12; 18,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 32,79</t>
+          <t>1,31; 16,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,97; 21,51</t>
+          <t>2,5; 17,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 22,56</t>
+          <t>8,43; 19,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 20,21</t>
+          <t>4,86; 13,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,44; 27,49</t>
+          <t>4,61; 15,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,58; 19,41</t>
+          <t>5,86; 16,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>12,9%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,97; 35,38</t>
+          <t>10,11; 37,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,28; 38,3</t>
+          <t>15,35; 43,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 29,24</t>
+          <t>8,96; 32,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 20,24</t>
+          <t>4,25; 22,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 36,12</t>
+          <t>12,32; 42,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 29,82</t>
+          <t>9,09; 32,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 32,92</t>
+          <t>13,2; 38,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 19,19</t>
+          <t>6,26; 26,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,35; 31,41</t>
+          <t>14,73; 33,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 30,22</t>
+          <t>15,05; 34,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,15; 26,84</t>
+          <t>14,49; 31,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 17,12</t>
+          <t>7,28; 20,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,61; 21,39</t>
+          <t>13,54; 35,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 17,5</t>
+          <t>11,04; 40,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 21,01</t>
+          <t>8,48; 36,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 15,4</t>
+          <t>5,52; 21,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,94; 22,33</t>
+          <t>10,24; 33,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 17,45</t>
+          <t>11,68; 36,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 19,74</t>
+          <t>10,46; 42,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 14,86</t>
+          <t>4,64; 19,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 19,96</t>
+          <t>14,5; 30,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 16,14</t>
+          <t>14,73; 34,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,03; 19,7</t>
+          <t>13,0; 34,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 13,25</t>
+          <t>6,32; 17,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,69%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,89%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,39%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 21,37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,51; 17,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9,86; 20,5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 14,69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 21,79</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,63; 16,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 19,09</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 14,81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12,48; 19,72</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 15,56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10,98; 18,53</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 13,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP16A08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A08-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 24,59</t>
+          <t>4,82; 25,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,81</t>
+          <t>0,0; 6,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 22,21</t>
+          <t>2,66; 22,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,88</t>
+          <t>0,0; 12,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,65</t>
+          <t>0,0; 11,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,24</t>
+          <t>0,0; 13,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 14,85</t>
+          <t>3,41; 15,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,68</t>
+          <t>0,75; 6,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,26</t>
+          <t>2,4; 13,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 19,09</t>
+          <t>5,47; 20,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 14,92</t>
+          <t>3,66; 14,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 24,16</t>
+          <t>5,54; 22,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 24,01</t>
+          <t>6,29; 24,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 26,63</t>
+          <t>7,53; 26,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 18,33</t>
+          <t>3,19; 17,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 16,6</t>
+          <t>1,31; 17,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 17,35</t>
+          <t>2,79; 16,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 19,7</t>
+          <t>7,98; 20,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 13,27</t>
+          <t>4,85; 13,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 15,61</t>
+          <t>4,61; 15,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 16,74</t>
+          <t>5,93; 17,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 37,61</t>
+          <t>10,19; 38,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,35; 43,98</t>
+          <t>16,06; 43,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,96; 32,4</t>
+          <t>9,43; 31,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 22,74</t>
+          <t>4,23; 22,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 42,53</t>
+          <t>12,44; 42,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 32,08</t>
+          <t>8,02; 31,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,2; 38,15</t>
+          <t>14,09; 37,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 26,3</t>
+          <t>6,5; 28,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,73; 33,98</t>
+          <t>14,29; 35,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,05; 34,38</t>
+          <t>13,91; 33,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 31,21</t>
+          <t>14,37; 31,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 20,98</t>
+          <t>7,59; 20,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,54; 35,04</t>
+          <t>13,2; 34,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 40,2</t>
+          <t>10,7; 43,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 36,72</t>
+          <t>7,38; 38,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 21,98</t>
+          <t>5,62; 21,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,24; 33,94</t>
+          <t>9,57; 34,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 36,61</t>
+          <t>11,11; 39,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 42,8</t>
+          <t>9,8; 41,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 19,96</t>
+          <t>4,44; 19,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 30,57</t>
+          <t>14,48; 30,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,73; 34,2</t>
+          <t>14,67; 33,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 34,42</t>
+          <t>13,07; 35,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 17,3</t>
+          <t>6,28; 17,17</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,36; 21,37</t>
+          <t>11,5; 21,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,89</t>
+          <t>8,77; 17,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,86; 20,5</t>
+          <t>10,38; 20,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,69</t>
+          <t>6,63; 15,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,67; 21,79</t>
+          <t>10,52; 22,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,63; 16,47</t>
+          <t>8,37; 17,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,28; 19,09</t>
+          <t>8,66; 20,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,81</t>
+          <t>6,29; 14,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,72</t>
+          <t>12,48; 19,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,56</t>
+          <t>9,37; 15,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,98; 18,53</t>
+          <t>10,8; 18,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,3</t>
+          <t>7,38; 13,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A08-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,37 +656,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>12,28%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>1,63%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>8,33%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -724,57 +724,57 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 25,36</t>
+          <t>0,0; 14,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,76</t>
+          <t>0,0; 11,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 22,49</t>
+          <t>0,0; 14,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0; 6,15</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 24,56</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 21,94</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0; 4,44</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,99</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,79</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,61</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 6,15</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 15,96</t>
+          <t>2,83; 14,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,22</t>
+          <t>0,75; 6,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 13,7</t>
+          <t>2,48; 13,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>15,58%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>11,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>8,16%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>12,36%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,53%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>15,58%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,91%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,7%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 20,47</t>
+          <t>8,25; 26,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 14,59</t>
+          <t>4,01; 18,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 22,83</t>
+          <t>1,33; 15,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 24,66</t>
+          <t>2,83; 16,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 26,02</t>
+          <t>5,38; 19,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 17,14</t>
+          <t>3,98; 15,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 17,24</t>
+          <t>5,39; 24,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 16,77</t>
+          <t>5,85; 24,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 20,63</t>
+          <t>8,35; 20,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,56</t>
+          <t>4,94; 13,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 15,25</t>
+          <t>5,0; 15,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 17,45</t>
+          <t>6,01; 17,35</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24,18%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>21,65%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>28,45%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>18,98%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,24%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>25,07%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>18,53%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>24,18%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>12,7%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 38,87</t>
+          <t>12,68; 42,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,06; 43,99</t>
+          <t>7,62; 33,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 31,23</t>
+          <t>13,79; 37,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 22,69</t>
+          <t>6,6; 28,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 42,76</t>
+          <t>10,77; 37,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 31,01</t>
+          <t>15,87; 44,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,09; 37,98</t>
+          <t>10,25; 31,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 28,25</t>
+          <t>4,5; 22,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,29; 35,16</t>
+          <t>14,23; 33,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 33,75</t>
+          <t>15,1; 34,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 31,45</t>
+          <t>13,8; 30,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 20,52</t>
+          <t>7,11; 20,59</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>20,56%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24,06%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>22,82%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>24,22%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>20,21%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,75%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>20,56%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>22,79%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>24,06%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>9,28%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,2; 34,58</t>
+          <t>10,57; 35,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 43,44</t>
+          <t>12,05; 36,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 38,32</t>
+          <t>9,9; 40,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 21,97</t>
+          <t>1,61; 15,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 34,63</t>
+          <t>14,19; 35,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 39,14</t>
+          <t>11,46; 41,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,8; 41,7</t>
+          <t>9,4; 36,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 19,8</t>
+          <t>5,57; 20,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 30,5</t>
+          <t>15,02; 30,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 33,65</t>
+          <t>14,32; 34,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,07; 35,46</t>
+          <t>12,19; 33,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 17,17</t>
+          <t>3,77; 14,35</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>16,27%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>12,69%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>14,82%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,4%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>15,45%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>12,06%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>13,83%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>9,33%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,5; 21,59</t>
+          <t>10,94; 22,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,77; 17,8</t>
+          <t>8,09; 17,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,38; 20,65</t>
+          <t>9,42; 19,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 15,08</t>
+          <t>4,34; 12,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,52; 22,09</t>
+          <t>11,61; 21,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,37; 17,0</t>
+          <t>8,66; 17,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 20,29</t>
+          <t>10,39; 21,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 14,67</t>
+          <t>6,57; 15,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,79</t>
+          <t>12,64; 19,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,37; 15,66</t>
+          <t>9,27; 16,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,8; 18,05</t>
+          <t>11,03; 19,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,36</t>
+          <t>6,45; 12,44</t>
         </is>
       </c>
     </row>
